--- a/Video/discrepancy_vs_serve.xlsx
+++ b/Video/discrepancy_vs_serve.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="3408"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13680" windowHeight="3408"/>
   </bookViews>
   <sheets>
     <sheet name="discrepancy_vs_serve" sheetId="1" r:id="rId1"/>
@@ -586,6 +586,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Video tags tradeoff</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -5489,6 +5514,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Retained fill</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5551,6 +5632,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Retained Discrepancy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6496,7 +6633,7 @@
   <dimension ref="A1:F802"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
